--- a/biology/Botanique/Acanthocereus/Acanthocereus.xlsx
+++ b/biology/Botanique/Acanthocereus/Acanthocereus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthocereus est un genre de la famille des cactus composé de 6 espèces.
 Le nom vient du grec ancien "Akanthos", signifiant "épine", en raison des fortes épines qu'il porte.
@@ -518,15 +530,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste d'espèces
-Acanthocereus baxaniensis (ex Karw. Pfeiffer.) Borg 
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Acanthocereus baxaniensis (ex Karw. Pfeiffer.) Borg 
 Acanthocereus colombianus Britton &amp; Rose 
 Acanthocereus horridus Britton &amp; Rose 
 Acanthocereus occidentalis Britton &amp; Rose 
 Acanthocereus subinermis Britton &amp; Rose 
-Acanthocereus tetragonus (L.) Hummelinck, Acanthocereus pentagonus ou encore cactus barbelé à cause de la forme de ses épines. C'est l'espèce la plus répandue et la plus grande, pouvant atteindre 2 à 7 mètres de haut. Comme elle est envahissante en Nouvelle-Calédonie, le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat[1].
-Synonymes
-Dendrocereus Britton &amp; Rose
+Acanthocereus tetragonus (L.) Hummelinck, Acanthocereus pentagonus ou encore cactus barbelé à cause de la forme de ses épines. C'est l'espèce la plus répandue et la plus grande, pouvant atteindre 2 à 7 mètres de haut. Comme elle est envahissante en Nouvelle-Calédonie, le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Acanthocereus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acanthocereus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendrocereus Britton &amp; Rose
 Monvillea Britton &amp; Rose
 </t>
         </is>
